--- a/data/posicionForma.xlsx
+++ b/data/posicionForma.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1540" yWindow="8120" windowWidth="14400" windowHeight="9660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POSICION" sheetId="2" r:id="rId1"/>
@@ -545,9 +545,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -563,14 +560,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -755,11 +755,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2011004592"/>
-        <c:axId val="-2009646192"/>
+        <c:axId val="-2028635888"/>
+        <c:axId val="-2062951648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2011004592"/>
+        <c:axId val="-2028635888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009646192"/>
+        <c:crossAx val="-2062951648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2009646192"/>
+        <c:axId val="-2062951648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011004592"/>
+        <c:crossAx val="-2028635888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,7 +2141,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="A1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2425,8 +2425,8 @@
       <c r="K7" s="4">
         <v>19</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
@@ -2876,31 +2876,31 @@
       <c r="M14" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="24">
         <v>1</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="24">
         <v>2</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="24">
         <v>3</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="24">
         <v>4</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14" s="24">
         <v>5</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14" s="24">
         <v>6</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="24">
         <v>7</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="24">
         <v>8</v>
       </c>
-      <c r="W14" s="25">
+      <c r="W14" s="24">
         <v>9</v>
       </c>
       <c r="X14" s="19">
@@ -2948,31 +2948,31 @@
       <c r="AL14" s="19">
         <v>24</v>
       </c>
-      <c r="AM14" s="26">
+      <c r="AM14" s="25">
         <v>25</v>
       </c>
-      <c r="AN14" s="26">
+      <c r="AN14" s="25">
         <v>26</v>
       </c>
-      <c r="AO14" s="26">
+      <c r="AO14" s="25">
         <v>27</v>
       </c>
-      <c r="AP14" s="26">
+      <c r="AP14" s="25">
         <v>28</v>
       </c>
-      <c r="AQ14" s="26">
+      <c r="AQ14" s="25">
         <v>29</v>
       </c>
-      <c r="AR14" s="26">
+      <c r="AR14" s="25">
         <v>30</v>
       </c>
-      <c r="AS14" s="26">
+      <c r="AS14" s="25">
         <v>31</v>
       </c>
-      <c r="AT14" s="26">
+      <c r="AT14" s="25">
         <v>32</v>
       </c>
-      <c r="AU14" s="26">
+      <c r="AU14" s="25">
         <v>33</v>
       </c>
     </row>
@@ -3045,47 +3045,47 @@
       <c r="K16" s="4">
         <v>12</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="24" t="s">
         <v>53</v>
       </c>
       <c r="N16">
         <f>QUARTILE(O13:AU13,1)</f>
         <v>5</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="P16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="24"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
     </row>
     <row r="17" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
@@ -3124,7 +3124,7 @@
       <c r="M17" t="s">
         <v>58</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="26">
         <f>33/4</f>
         <v>8.25</v>
       </c>
@@ -3199,47 +3199,47 @@
       <c r="K19" s="4">
         <v>5</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="25" t="s">
         <v>55</v>
       </c>
       <c r="N19">
         <f>QUARTILE(O13:AU13,3)</f>
         <v>13</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
     </row>
     <row r="20" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
@@ -3278,7 +3278,7 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="26">
         <f>33*(3/4)</f>
         <v>24.75</v>
       </c>
@@ -3591,25 +3591,25 @@
       <c r="K26" s="4">
         <v>5</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="24">
         <v>1</v>
       </c>
-      <c r="P26" s="25">
+      <c r="P26" s="24">
         <v>2</v>
       </c>
-      <c r="Q26" s="25">
+      <c r="Q26" s="24">
         <v>3</v>
       </c>
-      <c r="R26" s="25">
+      <c r="R26" s="24">
         <v>4</v>
       </c>
-      <c r="S26" s="25">
+      <c r="S26" s="24">
         <v>5</v>
       </c>
-      <c r="T26" s="25">
+      <c r="T26" s="24">
         <v>6</v>
       </c>
-      <c r="U26" s="25">
+      <c r="U26" s="24">
         <v>7</v>
       </c>
       <c r="V26" s="19">
@@ -3669,25 +3669,25 @@
       <c r="AN26" s="19">
         <v>26</v>
       </c>
-      <c r="AO26" s="26">
+      <c r="AO26" s="25">
         <v>27</v>
       </c>
-      <c r="AP26" s="26">
+      <c r="AP26" s="25">
         <v>28</v>
       </c>
-      <c r="AQ26" s="26">
+      <c r="AQ26" s="25">
         <v>29</v>
       </c>
-      <c r="AR26" s="26">
+      <c r="AR26" s="25">
         <v>30</v>
       </c>
-      <c r="AS26" s="26">
+      <c r="AS26" s="25">
         <v>31</v>
       </c>
-      <c r="AT26" s="26">
+      <c r="AT26" s="25">
         <v>32</v>
       </c>
-      <c r="AU26" s="26">
+      <c r="AU26" s="25">
         <v>33</v>
       </c>
     </row>
@@ -3798,47 +3798,47 @@
       <c r="K29" s="4">
         <v>5</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="24" t="s">
         <v>59</v>
       </c>
       <c r="N29">
         <f>PERCENTILE(O25:AU25,0.2)</f>
         <v>5</v>
       </c>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="24"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="24"/>
-      <c r="AO29" s="24"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="24"/>
-      <c r="AR29" s="24"/>
-      <c r="AS29" s="24"/>
-      <c r="AT29" s="24"/>
-      <c r="AU29" s="24"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
     </row>
     <row r="30" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
@@ -3877,7 +3877,7 @@
       <c r="M30" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="26">
         <f>33/5</f>
         <v>6.6</v>
       </c>
@@ -3952,47 +3952,47 @@
       <c r="K32" s="4">
         <v>42</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="25" t="s">
         <v>60</v>
       </c>
       <c r="N32">
         <f>PERCENTILE(O25:AU25,0.8)</f>
         <v>15.200000000000003</v>
       </c>
-      <c r="P32" s="24" t="s">
+      <c r="P32" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="24"/>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="24"/>
-      <c r="AS32" s="24"/>
-      <c r="AT32" s="24"/>
-      <c r="AU32" s="24"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="36"/>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="36"/>
+      <c r="AO32" s="36"/>
+      <c r="AP32" s="36"/>
+      <c r="AQ32" s="36"/>
+      <c r="AR32" s="36"/>
+      <c r="AS32" s="36"/>
+      <c r="AT32" s="36"/>
+      <c r="AU32" s="36"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
@@ -4031,7 +4031,7 @@
       <c r="M33" t="s">
         <v>58</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="26">
         <f>33*(4/5)</f>
         <v>26.400000000000002</v>
       </c>
@@ -16615,8 +16615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16668,10 +16668,10 @@
       <c r="M1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="29" t="s">
         <v>76</v>
       </c>
       <c r="P1" s="19" t="s">
@@ -16716,18 +16716,18 @@
       <c r="K2" s="4">
         <v>20</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="27">
         <v>1</v>
       </c>
       <c r="N2" s="17">
-        <f>O2-$U$11</f>
+        <f t="shared" ref="N2:N8" si="0">O2-$U$11</f>
         <v>4.9700000000000051</v>
       </c>
       <c r="O2" s="17">
-        <f t="shared" ref="O2:O6" si="0">N3</f>
+        <f t="shared" ref="O2:O6" si="1">N3</f>
         <v>10.260000000000005</v>
       </c>
-      <c r="P2" s="31" t="str">
+      <c r="P2" s="30" t="str">
         <f>ROUND(N2,2)&amp;"-"&amp;O2</f>
         <v>4.97-10.26</v>
       </c>
@@ -16771,19 +16771,19 @@
       <c r="K3" s="4">
         <v>5</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="27">
         <v>2</v>
       </c>
       <c r="N3" s="17">
-        <f>O3-$U$11</f>
+        <f t="shared" si="0"/>
         <v>10.260000000000005</v>
       </c>
       <c r="O3" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.550000000000004</v>
       </c>
-      <c r="P3" s="31" t="str">
-        <f t="shared" ref="P3:P8" si="1">ROUND(N3,2)&amp;"-"&amp;O3</f>
+      <c r="P3" s="30" t="str">
+        <f t="shared" ref="P3:P8" si="2">ROUND(N3,2)&amp;"-"&amp;O3</f>
         <v>10.26-15.55</v>
       </c>
       <c r="Q3" s="15">
@@ -16825,19 +16825,19 @@
       <c r="K4" s="4">
         <v>10</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="27">
         <v>3</v>
       </c>
       <c r="N4" s="17">
-        <f>O4-$U$11</f>
+        <f t="shared" si="0"/>
         <v>15.550000000000004</v>
       </c>
       <c r="O4" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.840000000000003</v>
       </c>
-      <c r="P4" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="P4" s="30" t="str">
+        <f t="shared" si="2"/>
         <v>15.55-20.84</v>
       </c>
       <c r="Q4" s="15">
@@ -16879,19 +16879,19 @@
       <c r="K5" s="4">
         <v>6</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="27">
         <v>4</v>
       </c>
       <c r="N5" s="17">
-        <f>O5-$U$11</f>
+        <f t="shared" si="0"/>
         <v>20.840000000000003</v>
       </c>
       <c r="O5" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.130000000000003</v>
       </c>
-      <c r="P5" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="P5" s="30" t="str">
+        <f t="shared" si="2"/>
         <v>20.84-26.13</v>
       </c>
       <c r="Q5" s="15">
@@ -16938,19 +16938,19 @@
       <c r="K6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="27">
         <v>5</v>
       </c>
       <c r="N6" s="17">
-        <f>O6-$U$11</f>
+        <f t="shared" si="0"/>
         <v>26.130000000000003</v>
       </c>
       <c r="O6" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.42</v>
       </c>
-      <c r="P6" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="P6" s="30" t="str">
+        <f t="shared" si="2"/>
         <v>26.13-31.42</v>
       </c>
       <c r="Q6" s="15">
@@ -17000,19 +17000,19 @@
       <c r="K7" s="4">
         <v>19</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="27">
         <v>6</v>
       </c>
       <c r="N7" s="17">
-        <f>O7-$U$11</f>
+        <f t="shared" si="0"/>
         <v>31.42</v>
       </c>
       <c r="O7" s="17">
         <f>N8</f>
         <v>36.71</v>
       </c>
-      <c r="P7" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="P7" s="30" t="str">
+        <f t="shared" si="2"/>
         <v>31.42-36.71</v>
       </c>
       <c r="Q7" s="15">
@@ -17062,19 +17062,19 @@
       <c r="K8" s="4">
         <v>5</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="27">
         <v>7</v>
       </c>
       <c r="N8" s="17">
-        <f>O8-$U$11</f>
+        <f t="shared" si="0"/>
         <v>36.71</v>
       </c>
       <c r="O8" s="17">
         <f>T7</f>
         <v>42</v>
       </c>
-      <c r="P8" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="P8" s="30" t="str">
+        <f t="shared" si="2"/>
         <v>36.71-42</v>
       </c>
       <c r="Q8" s="15">
@@ -18107,13 +18107,13 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="4"/>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
     </row>
     <row r="36" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
@@ -18125,11 +18125,11 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
@@ -18164,10 +18164,10 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="N39" s="34" t="s">
+      <c r="N39" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="O39" s="35">
+      <c r="O39" s="33">
         <f>KURT(K2:K34)</f>
         <v>8.3462536662103641</v>
       </c>
@@ -18196,10 +18196,10 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="N41" s="36" t="s">
+      <c r="N41" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="O41" s="37">
+      <c r="O41" s="35">
         <f>_xlfn.SKEW.P(K2:K34)</f>
         <v>2.3574529824122461</v>
       </c>
@@ -18336,7 +18336,7 @@
       <c r="R51" t="s">
         <v>83</v>
       </c>
-      <c r="S51" s="33" t="s">
+      <c r="S51" s="31" t="s">
         <v>84</v>
       </c>
     </row>
@@ -18547,7 +18547,7 @@
       <c r="I67" t="s">
         <v>80</v>
       </c>
-      <c r="J67" s="33" t="s">
+      <c r="J67" s="31" t="s">
         <v>81</v>
       </c>
       <c r="K67" s="6"/>
